--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>44495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44721</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44851</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44859</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44865</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44912</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44991</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>45168</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43322</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43339</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43343</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43366</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43375</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43388</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43403</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43404</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43416</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43448</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43451</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43453</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43476</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43503</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43517</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43521</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43525</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43530</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43545</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43553</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43563</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43578</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43579</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43587</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43650</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43676</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43678</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43691</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43696</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43698</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43700</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43713</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43724</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43746</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43747</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43748</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43760</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43763</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43768</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43781</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43787</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43788</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43794</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43796</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43802</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43809</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43830</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43864</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43882</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43893</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43895</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43901</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43902</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43907</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43910</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43923</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43929</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43937</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43992</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>43994</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>44008</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44025</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44035</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44054</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44090</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44091</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44095</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44097</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44098</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44099</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44101</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44102</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44109</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>44119</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>44125</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>44131</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44134</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44157</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44179</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44207</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44208</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44218</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44244</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44258</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44265</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44266</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44287</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>44300</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14864,7 +14864,7 @@
         <v>44313</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>44318</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14978,7 +14978,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15035,7 +15035,7 @@
         <v>44342</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44344</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44354</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15335,7 +15335,7 @@
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19323,7 +19323,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20069,7 +20069,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25611,7 +25611,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25839,7 +25839,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>44495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44721</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44851</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44859</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44865</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44912</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44991</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>45168</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43322</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43339</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43343</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43366</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43375</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43388</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43403</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43404</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43416</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43448</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43451</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43453</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43476</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43503</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43517</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43521</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43525</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43530</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43545</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43553</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43563</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43578</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43579</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43587</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43650</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43676</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43678</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43691</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43696</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43698</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43700</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43713</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43724</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43746</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43747</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43748</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43760</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43763</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43768</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43781</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43787</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43788</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43794</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43796</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43802</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43809</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43830</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43864</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43882</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43893</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43895</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43901</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43902</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43907</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43910</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43923</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43929</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43937</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43992</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>43994</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>44008</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44025</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44035</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44054</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44090</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44091</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44095</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44097</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44098</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44099</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44101</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44102</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44109</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>44119</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>44125</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>44131</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44134</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44157</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44179</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44207</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44208</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44218</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44244</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44258</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44265</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44266</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44287</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>44300</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14864,7 +14864,7 @@
         <v>44313</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>44318</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14978,7 +14978,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15035,7 +15035,7 @@
         <v>44342</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44344</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44354</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15335,7 +15335,7 @@
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19323,7 +19323,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20069,7 +20069,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25611,7 +25611,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25839,7 +25839,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>44495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44721</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44851</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44859</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44865</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44912</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44991</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>45168</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43322</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43339</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43343</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43366</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43375</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43388</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43403</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43404</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43416</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43448</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43451</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43453</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43476</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43503</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43517</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43521</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43525</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43530</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43545</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43553</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43563</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43578</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43579</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43587</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43650</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43676</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43678</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43691</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43696</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43698</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43700</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43713</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43724</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43746</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43747</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43748</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43760</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43763</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43768</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43781</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43787</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43788</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43794</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43796</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43802</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43809</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43830</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43864</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43882</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43893</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43895</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43901</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43902</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43907</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43910</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43923</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43929</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43937</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43992</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>43994</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>44008</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44025</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44035</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44054</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44090</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44091</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44095</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44097</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44098</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44099</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44101</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44102</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44109</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>44119</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>44125</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>44131</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44134</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44157</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44179</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44207</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44208</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44218</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44244</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44258</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44265</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44266</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44287</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>44300</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14864,7 +14864,7 @@
         <v>44313</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>44318</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14978,7 +14978,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15035,7 +15035,7 @@
         <v>44342</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44344</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44354</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15335,7 +15335,7 @@
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19323,7 +19323,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20069,7 +20069,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25611,7 +25611,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25839,7 +25839,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>44495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44721</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44851</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44859</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44865</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44912</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44991</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>45168</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43322</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43339</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43343</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43366</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43375</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43388</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43403</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43404</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43416</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43448</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43451</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43453</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43476</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43503</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43517</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43521</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43525</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43530</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43545</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43553</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43563</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43578</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43579</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43587</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43650</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43676</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43678</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43691</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43696</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43698</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43700</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43713</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43724</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43746</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43747</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43748</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43760</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43763</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43768</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43781</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43787</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43788</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43794</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43796</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43802</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43809</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43830</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43864</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43882</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43893</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43895</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43901</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43902</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43907</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43910</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43923</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43929</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43937</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43992</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>43994</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>44008</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44025</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44035</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44054</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44090</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44091</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44095</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44097</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44098</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44099</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44101</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44102</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44109</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>44119</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>44125</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>44131</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44134</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44157</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44179</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44207</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44208</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44218</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44244</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44258</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44265</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44266</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44287</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>44300</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14864,7 +14864,7 @@
         <v>44313</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>44318</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14978,7 +14978,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15035,7 +15035,7 @@
         <v>44342</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44344</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44354</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15335,7 +15335,7 @@
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19323,7 +19323,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20069,7 +20069,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25611,7 +25611,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25839,7 +25839,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>44495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44721</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44851</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44859</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44865</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44912</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44991</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>45168</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43322</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43339</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43343</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43366</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43375</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43388</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43403</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43404</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43416</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43448</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43451</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43453</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43476</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43503</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43517</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43521</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43525</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43530</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43545</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43553</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43563</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43578</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43579</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43587</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43650</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43676</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43678</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43691</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43696</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43698</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43700</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43713</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43724</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43746</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43747</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43748</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43760</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43763</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43768</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43781</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43787</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43788</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43794</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43796</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43802</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43809</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43830</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43864</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43882</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43893</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43895</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43901</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43902</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43907</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43910</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43923</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43929</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43937</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43992</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>43994</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>44008</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44025</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44035</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44054</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44090</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44091</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44095</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44097</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44098</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44099</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44101</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44102</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44109</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>44119</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>44125</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>44131</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44134</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44157</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44179</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44207</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44208</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44218</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44244</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44258</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44265</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44266</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44287</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>44300</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14864,7 +14864,7 @@
         <v>44313</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>44318</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14978,7 +14978,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15035,7 +15035,7 @@
         <v>44342</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44344</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44354</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15335,7 +15335,7 @@
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19323,7 +19323,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20069,7 +20069,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25611,7 +25611,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25839,7 +25839,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>44495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44721</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44851</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44859</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44865</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44912</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44991</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>45168</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43322</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43339</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43343</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43366</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43375</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43388</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43403</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43404</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43416</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43423</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43448</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43451</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43453</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43476</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43483</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43503</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43517</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43521</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43525</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43530</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43531</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43545</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43553</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43563</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43578</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43579</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43587</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43650</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43676</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43678</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43683</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43689</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43691</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43696</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43697</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43698</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43700</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43713</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43717</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43724</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43746</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43747</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43748</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43760</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43763</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43768</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43781</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43787</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43788</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43794</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43796</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43802</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43809</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43830</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43864</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43882</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43893</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43895</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43901</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43902</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43907</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43910</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43923</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43929</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43937</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43992</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>43994</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>44008</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>44025</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44035</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44054</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44057</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44090</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>44091</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44095</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44097</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44098</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44099</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44101</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44102</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44109</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>44119</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>44125</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>44131</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44134</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44157</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44179</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44207</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44208</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44218</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44244</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44258</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44265</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44266</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44287</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>44300</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14864,7 +14864,7 @@
         <v>44313</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>44318</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14978,7 +14978,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15035,7 +15035,7 @@
         <v>44342</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44344</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44354</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15335,7 +15335,7 @@
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19323,7 +19323,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20069,7 +20069,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25611,7 +25611,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25839,7 +25839,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2806,14 +2806,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 43050-2021</t>
+          <t>A 27850-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44431</v>
+        <v>44354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2825,8 +2825,13 @@
           <t>NORDMALING</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2860,907 +2865,935 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 27850-2021.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 27850-2021.png")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 27850-2021.docx")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 27850-2021.docx")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 27850-2021.docx")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 27850-2021.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 43050-2021</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>44431</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NORDMALING</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
           <t>Gränsticka</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 43050-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 43050-2021.png")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 43050-2021.docx")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 43050-2021.docx")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 43050-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 43050-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>A 60309-2021</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B29" s="1" t="n">
         <v>44495</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NORDMALING</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="C29" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NORDMALING</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G29" t="n">
         <v>1.5</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>1</v>
       </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Gränsticka</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 60309-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 60309-2021.png")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 60309-2021.docx")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 60309-2021.docx")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 60309-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 60309-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>A 60310-2021</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B30" s="1" t="n">
         <v>44495</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NORDMALING</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
+      <c r="C30" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NORDMALING</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G30" t="n">
         <v>1.2</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>1</v>
       </c>
-      <c r="R29" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Stor aspticka</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 60310-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T29">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 60310-2021.png")</f>
         <v/>
       </c>
-      <c r="V29">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 60310-2021.docx")</f>
         <v/>
       </c>
-      <c r="W29">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 60310-2021.docx")</f>
         <v/>
       </c>
-      <c r="X29">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 60310-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y29">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 60310-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>A 23496-2022</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B31" s="1" t="n">
         <v>44721</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NORDMALING</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
+      <c r="C31" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NORDMALING</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
         <v>0.7</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>1</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>1</v>
       </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Järpe</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 23496-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 23496-2022.png")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 23496-2022.docx")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 23496-2022.docx")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 23496-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 23496-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>A 46990-2022</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B32" s="1" t="n">
         <v>44851</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NORDMALING</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="C32" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NORDMALING</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G32" t="n">
         <v>7.7</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>1</v>
       </c>
-      <c r="R31" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Lunglav</t>
         </is>
       </c>
-      <c r="S31">
+      <c r="S32">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 46990-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T31">
+      <c r="T32">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 46990-2022.png")</f>
         <v/>
       </c>
-      <c r="V31">
+      <c r="V32">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 46990-2022.docx")</f>
         <v/>
       </c>
-      <c r="W31">
+      <c r="W32">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 46990-2022.docx")</f>
         <v/>
       </c>
-      <c r="X31">
+      <c r="X32">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 46990-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y31">
+      <c r="Y32">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 46990-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>A 48947-2022</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B33" s="1" t="n">
         <v>44859</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NORDMALING</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="C33" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NORDMALING</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G33" t="n">
         <v>3.4</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>1</v>
       </c>
-      <c r="R32" s="2" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
         <is>
           <t>Trådticka</t>
         </is>
       </c>
-      <c r="S32">
+      <c r="S33">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 48947-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T32">
+      <c r="T33">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 48947-2022.png")</f>
         <v/>
       </c>
-      <c r="V32">
+      <c r="V33">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 48947-2022.docx")</f>
         <v/>
       </c>
-      <c r="W32">
+      <c r="W33">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 48947-2022.docx")</f>
         <v/>
       </c>
-      <c r="X32">
+      <c r="X33">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 48947-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y32">
+      <c r="Y33">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 48947-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>A 50257-2022</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B34" s="1" t="n">
         <v>44865</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NORDMALING</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="C34" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NORDMALING</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>Holmen skog AB</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G34" t="n">
         <v>9.6</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>1</v>
       </c>
-      <c r="R33" s="2" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>Garnlav</t>
         </is>
       </c>
-      <c r="S33">
+      <c r="S34">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 50257-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T33">
+      <c r="T34">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 50257-2022.png")</f>
         <v/>
       </c>
-      <c r="V33">
+      <c r="V34">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 50257-2022.docx")</f>
         <v/>
       </c>
-      <c r="W33">
+      <c r="W34">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 50257-2022.docx")</f>
         <v/>
       </c>
-      <c r="X33">
+      <c r="X34">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 50257-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y33">
+      <c r="Y34">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 50257-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>A 60719-2022</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B35" s="1" t="n">
         <v>44912</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>NORDMALING</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
+      <c r="C35" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NORDMALING</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G35" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>1</v>
       </c>
-      <c r="R34" s="2" t="inlineStr">
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S34">
+      <c r="S35">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 60719-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T34">
+      <c r="T35">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 60719-2022.png")</f>
         <v/>
       </c>
-      <c r="V34">
+      <c r="V35">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 60719-2022.docx")</f>
         <v/>
       </c>
-      <c r="W34">
+      <c r="W35">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 60719-2022.docx")</f>
         <v/>
       </c>
-      <c r="X34">
+      <c r="X35">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 60719-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y34">
+      <c r="Y35">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 60719-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>A 11056-2023</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B36" s="1" t="n">
         <v>44991</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>NORDMALING</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="C36" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NORDMALING</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="G36" t="n">
         <v>1</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I36" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>1</v>
       </c>
-      <c r="R35" s="2" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>Plattlummer</t>
         </is>
       </c>
-      <c r="S35">
+      <c r="S36">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 11056-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T35">
+      <c r="T36">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 11056-2023.png")</f>
         <v/>
       </c>
-      <c r="V35">
+      <c r="V36">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 11056-2023.docx")</f>
         <v/>
       </c>
-      <c r="W35">
+      <c r="W36">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 11056-2023.docx")</f>
         <v/>
       </c>
-      <c r="X35">
+      <c r="X36">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 11056-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y35">
+      <c r="Y36">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 11056-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>A 40113-2023</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B37" s="1" t="n">
         <v>45168</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>NORDMALING</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
+      <c r="C37" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NORDMALING</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G36" t="n">
+      <c r="G37" t="n">
         <v>6.1</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>1</v>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>1</v>
       </c>
-      <c r="R36" s="2" t="inlineStr">
+      <c r="R37" s="2" t="inlineStr">
         <is>
           <t>Granticka</t>
         </is>
       </c>
-      <c r="S36">
+      <c r="S37">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 40113-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T36">
+      <c r="T37">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 40113-2023.png")</f>
         <v/>
       </c>
-      <c r="V36">
+      <c r="V37">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 40113-2023.docx")</f>
         <v/>
       </c>
-      <c r="W36">
+      <c r="W37">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 40113-2023.docx")</f>
         <v/>
       </c>
-      <c r="X36">
+      <c r="X37">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 40113-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y36">
+      <c r="Y37">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 40113-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>A 35291-2018</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>43322</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>NORDMALING</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="2" t="inlineStr"/>
-    </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 39112-2018</t>
+          <t>A 35291-2018</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43339</v>
+        <v>43322</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3773,7 +3806,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.6</v>
+        <v>16.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3810,14 +3843,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 39116-2018</t>
+          <t>A 39112-2018</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3830,7 +3863,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3867,14 +3900,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 39175-2018</t>
+          <t>A 39116-2018</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3887,7 +3920,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3924,14 +3957,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 40641-2018</t>
+          <t>A 39175-2018</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43343</v>
+        <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3944,7 +3977,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3981,14 +4014,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 46069-2018</t>
+          <t>A 40641-2018</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43366</v>
+        <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4001,7 +4034,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4038,14 +4071,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 47114-2018</t>
+          <t>A 46069-2018</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43367</v>
+        <v>43366</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4058,7 +4091,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4095,14 +4128,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 48833-2018</t>
+          <t>A 47114-2018</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43375</v>
+        <v>43367</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4114,13 +4147,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4157,14 +4185,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 53991-2018</t>
+          <t>A 48833-2018</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43388</v>
+        <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4176,8 +4204,13 @@
           <t>NORDMALING</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4214,14 +4247,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 56872-2018</t>
+          <t>A 53991-2018</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43403</v>
+        <v>43388</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4234,7 +4267,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4271,14 +4304,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 59375-2018</t>
+          <t>A 56872-2018</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43404</v>
+        <v>43403</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4291,7 +4324,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4328,14 +4361,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 63293-2018</t>
+          <t>A 59375-2018</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43416</v>
+        <v>43404</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4348,7 +4381,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4385,14 +4418,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 60901-2018</t>
+          <t>A 63293-2018</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43423</v>
+        <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4405,7 +4438,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4442,14 +4475,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 60922-2018</t>
+          <t>A 60901-2018</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4462,7 +4495,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4499,14 +4532,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 68958-2018</t>
+          <t>A 60922-2018</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43440</v>
+        <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4519,7 +4552,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4556,14 +4589,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 69033-2018</t>
+          <t>A 68958-2018</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43445</v>
+        <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4576,7 +4609,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4613,14 +4646,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 69035-2018</t>
+          <t>A 69033-2018</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4633,7 +4666,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4670,14 +4703,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 70023-2018</t>
+          <t>A 69035-2018</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43448</v>
+        <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4690,7 +4723,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4727,14 +4760,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 70716-2018</t>
+          <t>A 70023-2018</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43451</v>
+        <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4747,7 +4780,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4784,14 +4817,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 70689-2018</t>
+          <t>A 70716-2018</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4804,7 +4837,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4841,14 +4874,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 71242-2018</t>
+          <t>A 70689-2018</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43453</v>
+        <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4861,7 +4894,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>7.1</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4898,14 +4931,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 72299-2018</t>
+          <t>A 71242-2018</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43455</v>
+        <v>43453</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4917,13 +4950,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>2.4</v>
+        <v>7.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4960,14 +4988,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 4233-2019</t>
+          <t>A 72299-2018</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43476</v>
+        <v>43455</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4979,8 +5007,13 @@
           <t>NORDMALING</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5017,14 +5050,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 4238-2019</t>
+          <t>A 4233-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5037,7 +5070,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5074,14 +5107,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 5440-2019</t>
+          <t>A 4238-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43481</v>
+        <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5094,7 +5127,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5131,14 +5164,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 4263-2019</t>
+          <t>A 5440-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43483</v>
+        <v>43481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5151,7 +5184,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5188,14 +5221,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4260-2019</t>
+          <t>A 4263-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5208,7 +5241,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5245,14 +5278,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6101-2019</t>
+          <t>A 4260-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5265,7 +5298,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5302,14 +5335,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 4827-2019</t>
+          <t>A 6101-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43486</v>
+        <v>43483</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5322,7 +5355,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5359,14 +5392,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 8832-2019</t>
+          <t>A 4827-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43503</v>
+        <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5379,7 +5412,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5416,14 +5449,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 8834-2019</t>
+          <t>A 8832-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5436,7 +5469,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5473,14 +5506,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 9023-2019</t>
+          <t>A 8834-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5493,7 +5526,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5530,14 +5563,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 11603-2019</t>
+          <t>A 9023-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43517</v>
+        <v>43503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5550,7 +5583,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5587,14 +5620,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 11817-2019</t>
+          <t>A 11603-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43521</v>
+        <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5607,7 +5640,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5644,14 +5677,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 11820-2019</t>
+          <t>A 11817-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5664,7 +5697,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5701,14 +5734,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 12912-2019</t>
+          <t>A 11820-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43525</v>
+        <v>43521</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5721,7 +5754,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5758,14 +5791,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 12921-2019</t>
+          <t>A 12912-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5815,14 +5848,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 12910-2019</t>
+          <t>A 12921-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5835,7 +5868,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5872,14 +5905,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 12917-2019</t>
+          <t>A 12910-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5892,7 +5925,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5929,14 +5962,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 12924-2019</t>
+          <t>A 12917-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5949,7 +5982,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5986,14 +6019,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13228-2019</t>
+          <t>A 12924-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43529</v>
+        <v>43525</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6006,7 +6039,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6043,14 +6076,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 13239-2019</t>
+          <t>A 13228-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6063,7 +6096,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6100,14 +6133,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 13229-2019</t>
+          <t>A 13239-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6120,7 +6153,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.2</v>
+        <v>0.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6157,14 +6190,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13240-2019</t>
+          <t>A 13229-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6177,7 +6210,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6214,14 +6247,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 13498-2019</t>
+          <t>A 13240-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6234,7 +6267,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>15.5</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6271,14 +6304,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 13237-2019</t>
+          <t>A 13498-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6291,7 +6324,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>15.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6328,14 +6361,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 13459-2019</t>
+          <t>A 13237-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43530</v>
+        <v>43529</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6348,7 +6381,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6385,14 +6418,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 13458-2019</t>
+          <t>A 13459-2019</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6405,7 +6438,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6442,14 +6475,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 13819-2019</t>
+          <t>A 13458-2019</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6462,7 +6495,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6499,14 +6532,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 13708-2019</t>
+          <t>A 13819-2019</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43531</v>
+        <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6519,7 +6552,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>6.9</v>
+        <v>4.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6556,14 +6589,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 13709-2019</t>
+          <t>A 13708-2019</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6576,7 +6609,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.3</v>
+        <v>6.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6613,14 +6646,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 16210-2019</t>
+          <t>A 13709-2019</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>43545</v>
+        <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6633,7 +6666,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6670,14 +6703,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 17416-2019</t>
+          <t>A 16210-2019</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43553</v>
+        <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6690,7 +6723,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6727,14 +6760,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 17415-2019</t>
+          <t>A 17416-2019</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6747,7 +6780,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>26.5</v>
+        <v>2.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6784,14 +6817,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 18846-2019</t>
+          <t>A 17415-2019</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43563</v>
+        <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6804,7 +6837,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>26.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6841,14 +6874,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 20289-2019</t>
+          <t>A 18846-2019</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>43567</v>
+        <v>43563</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6861,7 +6894,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6898,14 +6931,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 21025-2019</t>
+          <t>A 20289-2019</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>43578</v>
+        <v>43567</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6918,7 +6951,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>10.8</v>
+        <v>2.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6955,14 +6988,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 21034-2019</t>
+          <t>A 21025-2019</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6975,7 +7008,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.2</v>
+        <v>10.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7012,14 +7045,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 21338-2019</t>
+          <t>A 21034-2019</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>43579</v>
+        <v>43578</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7032,7 +7065,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7069,14 +7102,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 21339-2019</t>
+          <t>A 21338-2019</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7089,7 +7122,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7126,14 +7159,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 22357-2019</t>
+          <t>A 21339-2019</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>43587</v>
+        <v>43579</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7146,7 +7179,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7183,14 +7216,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 23414-2019</t>
+          <t>A 22357-2019</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>43592</v>
+        <v>43587</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7203,7 +7236,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7240,14 +7273,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 23581-2019</t>
+          <t>A 23414-2019</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>43593</v>
+        <v>43592</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7260,7 +7293,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7297,14 +7330,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 29060-2019</t>
+          <t>A 23581-2019</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>43621</v>
+        <v>43593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7317,7 +7350,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7354,14 +7387,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 33261-2019</t>
+          <t>A 29060-2019</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>43650</v>
+        <v>43621</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7374,7 +7407,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>9.6</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7411,14 +7444,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 37185-2019</t>
+          <t>A 33261-2019</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>43676</v>
+        <v>43650</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7431,7 +7464,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.4</v>
+        <v>9.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7468,14 +7501,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 37340-2019</t>
+          <t>A 37185-2019</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>43677</v>
+        <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7488,7 +7521,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7525,14 +7558,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 37559-2019</t>
+          <t>A 37340-2019</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>43678</v>
+        <v>43677</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7545,7 +7578,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7582,14 +7615,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 38033-2019</t>
+          <t>A 37559-2019</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>43683</v>
+        <v>43678</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7602,7 +7635,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7639,14 +7672,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 39067-2019</t>
+          <t>A 38033-2019</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>43689</v>
+        <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7659,7 +7692,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7696,14 +7729,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 39138-2019</t>
+          <t>A 39067-2019</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7716,7 +7749,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7753,14 +7786,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 39567-2019</t>
+          <t>A 39138-2019</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>43691</v>
+        <v>43689</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7773,7 +7806,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7810,14 +7843,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 40666-2019</t>
+          <t>A 39567-2019</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>43696</v>
+        <v>43691</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7829,13 +7862,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>8.9</v>
+        <v>3.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7872,14 +7900,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 40819-2019</t>
+          <t>A 40666-2019</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>43697</v>
+        <v>43696</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7891,8 +7919,13 @@
           <t>NORDMALING</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>8.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7929,14 +7962,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 41449-2019</t>
+          <t>A 40819-2019</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>43698</v>
+        <v>43697</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7949,7 +7982,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7986,14 +8019,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 42460-2019</t>
+          <t>A 41449-2019</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>43699</v>
+        <v>43698</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8006,7 +8039,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8043,14 +8076,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 42631-2019</t>
+          <t>A 42460-2019</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8063,7 +8096,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8100,14 +8133,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 43225-2019</t>
+          <t>A 42631-2019</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>43700</v>
+        <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8120,7 +8153,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8157,14 +8190,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 43223-2019</t>
+          <t>A 43225-2019</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8177,7 +8210,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8214,14 +8247,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 46077-2019</t>
+          <t>A 43223-2019</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>43713</v>
+        <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8234,7 +8267,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8271,14 +8304,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 45200-2019</t>
+          <t>A 46077-2019</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8291,7 +8324,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8328,14 +8361,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 45081-2019</t>
+          <t>A 45200-2019</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8348,7 +8381,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8385,14 +8418,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 46021-2019</t>
+          <t>A 45081-2019</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8438,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8442,14 +8475,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 46570-2019</t>
+          <t>A 46021-2019</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>43717</v>
+        <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8462,7 +8495,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8499,14 +8532,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 47453-2019</t>
+          <t>A 46570-2019</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>43724</v>
+        <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8519,7 +8552,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>6.3</v>
+        <v>0.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8556,14 +8589,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 54694-2019</t>
+          <t>A 47453-2019</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>43746</v>
+        <v>43724</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8576,7 +8609,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>6.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8613,14 +8646,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 54689-2019</t>
+          <t>A 54694-2019</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8666,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8670,14 +8703,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 54688-2019</t>
+          <t>A 54689-2019</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8723,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8727,14 +8760,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 52939-2019</t>
+          <t>A 54688-2019</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>43747</v>
+        <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8780,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8784,14 +8817,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 53279-2019</t>
+          <t>A 52939-2019</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>43748</v>
+        <v>43747</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8837,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8841,14 +8874,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 55684-2019</t>
+          <t>A 53279-2019</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>43760</v>
+        <v>43748</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8860,13 +8893,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8903,14 +8931,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 56817-2019</t>
+          <t>A 55684-2019</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>43763</v>
+        <v>43760</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8928,7 +8956,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8965,14 +8993,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 58819-2019</t>
+          <t>A 56817-2019</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>43768</v>
+        <v>43763</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8984,8 +9012,13 @@
           <t>NORDMALING</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>8.4</v>
+        <v>2.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9022,14 +9055,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 61984-2019</t>
+          <t>A 58819-2019</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>43781</v>
+        <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9041,13 +9074,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>2.3</v>
+        <v>8.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9084,14 +9112,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 60965-2019</t>
+          <t>A 61984-2019</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>43782</v>
+        <v>43781</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9103,8 +9131,13 @@
           <t>NORDMALING</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9141,14 +9174,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 63340-2019</t>
+          <t>A 60965-2019</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>43787</v>
+        <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9160,13 +9193,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9203,14 +9231,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 63419-2019</t>
+          <t>A 63340-2019</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9228,7 +9256,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9265,14 +9293,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 62363-2019</t>
+          <t>A 63419-2019</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>43788</v>
+        <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9284,8 +9312,13 @@
           <t>NORDMALING</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9322,14 +9355,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 63235-2019</t>
+          <t>A 62363-2019</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>43791</v>
+        <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9341,13 +9374,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9384,14 +9412,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 63361-2019</t>
+          <t>A 63235-2019</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>43794</v>
+        <v>43791</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9405,11 +9433,11 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9446,14 +9474,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 64144-2019</t>
+          <t>A 63361-2019</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>43796</v>
+        <v>43794</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9467,11 +9495,11 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>7.8</v>
+        <v>2.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9508,14 +9536,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 65164-2019</t>
+          <t>A 64144-2019</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9527,8 +9555,13 @@
           <t>NORDMALING</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1.9</v>
+        <v>7.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9565,14 +9598,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 65429-2019</t>
+          <t>A 65164-2019</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>43798</v>
+        <v>43796</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9585,7 +9618,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9622,14 +9655,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 65119-2019</t>
+          <t>A 65429-2019</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>43802</v>
+        <v>43798</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9642,7 +9675,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9679,14 +9712,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 67759-2019</t>
+          <t>A 65119-2019</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>43809</v>
+        <v>43802</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9699,7 +9732,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9736,14 +9769,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 69174-2019</t>
+          <t>A 67759-2019</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>43830</v>
+        <v>43809</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9756,7 +9789,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9793,14 +9826,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 6106-2020</t>
+          <t>A 69174-2019</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>43864</v>
+        <v>43830</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9813,7 +9846,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9850,14 +9883,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 9941-2020</t>
+          <t>A 6106-2020</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>43882</v>
+        <v>43864</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9870,7 +9903,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9907,14 +9940,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 12720-2020</t>
+          <t>A 9941-2020</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>43893</v>
+        <v>43882</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9927,7 +9960,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9964,14 +9997,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 12204-2020</t>
+          <t>A 12720-2020</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9984,7 +10017,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10021,14 +10054,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 13298-2020</t>
+          <t>A 12204-2020</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>43901</v>
+        <v>43895</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10041,7 +10074,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10078,14 +10111,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 13297-2020</t>
+          <t>A 13298-2020</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10098,7 +10131,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10135,14 +10168,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 13553-2020</t>
+          <t>A 13297-2020</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10155,7 +10188,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10192,14 +10225,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 14499-2020</t>
+          <t>A 13553-2020</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10212,7 +10245,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10249,14 +10282,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 15025-2020</t>
+          <t>A 14499-2020</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>43907</v>
+        <v>43902</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10269,7 +10302,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10306,14 +10339,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 16709-2020</t>
+          <t>A 15025-2020</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10326,7 +10359,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>6.8</v>
+        <v>2.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10363,14 +10396,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 17513-2020</t>
+          <t>A 16709-2020</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>43923</v>
+        <v>43910</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10383,7 +10416,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.4</v>
+        <v>6.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10420,14 +10453,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 18605-2020</t>
+          <t>A 17513-2020</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>43929</v>
+        <v>43923</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10440,7 +10473,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10477,14 +10510,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 19707-2020</t>
+          <t>A 18605-2020</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>43937</v>
+        <v>43929</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10497,7 +10530,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10534,14 +10567,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 25908-2020</t>
+          <t>A 19707-2020</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>43984</v>
+        <v>43937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10554,7 +10587,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10591,14 +10624,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 27318-2020</t>
+          <t>A 25908-2020</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>43991</v>
+        <v>43984</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10611,7 +10644,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10648,14 +10681,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 27347-2020</t>
+          <t>A 27318-2020</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10668,7 +10701,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10705,14 +10738,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 27353-2020</t>
+          <t>A 27347-2020</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10725,7 +10758,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10762,14 +10795,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 27360-2020</t>
+          <t>A 27353-2020</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10782,7 +10815,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10819,14 +10852,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 27813-2020</t>
+          <t>A 27360-2020</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>43994</v>
+        <v>43992</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10839,7 +10872,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10876,14 +10909,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 30142-2020</t>
+          <t>A 27813-2020</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44006</v>
+        <v>43994</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10896,7 +10929,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10933,14 +10966,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 30563-2020</t>
+          <t>A 30142-2020</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44008</v>
+        <v>44006</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10953,7 +10986,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10990,14 +11023,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 33626-2020</t>
+          <t>A 30563-2020</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44025</v>
+        <v>44008</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11009,13 +11042,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11052,14 +11080,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 33625-2020</t>
+          <t>A 33626-2020</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11077,7 +11105,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11114,14 +11142,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 34710-2020</t>
+          <t>A 33625-2020</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44035</v>
+        <v>44025</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11133,8 +11161,13 @@
           <t>NORDMALING</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>6.8</v>
+        <v>3.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11171,14 +11204,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 37223-2020</t>
+          <t>A 34710-2020</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44054</v>
+        <v>44035</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11191,7 +11224,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.2</v>
+        <v>6.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11228,14 +11261,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 38147-2020</t>
+          <t>A 37223-2020</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44057</v>
+        <v>44054</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11248,7 +11281,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11285,14 +11318,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 38160-2020</t>
+          <t>A 38147-2020</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11305,7 +11338,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11342,14 +11375,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 39623-2020</t>
+          <t>A 38160-2020</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44063</v>
+        <v>44057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11362,7 +11395,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11399,14 +11432,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 39658-2020</t>
+          <t>A 39623-2020</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11418,13 +11451,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11461,14 +11489,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 40846-2020</t>
+          <t>A 39658-2020</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44067</v>
+        <v>44064</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11480,8 +11508,13 @@
           <t>NORDMALING</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11518,14 +11551,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 40843-2020</t>
+          <t>A 40846-2020</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11538,7 +11571,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11575,14 +11608,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 43831-2020</t>
+          <t>A 40843-2020</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44082</v>
+        <v>44067</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11594,13 +11627,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11637,14 +11665,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 43851-2020</t>
+          <t>A 43831-2020</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11662,7 +11690,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11699,14 +11727,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 43833-2020</t>
+          <t>A 43851-2020</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11724,7 +11752,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11761,14 +11789,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 43843-2020</t>
+          <t>A 43833-2020</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11786,7 +11814,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11823,14 +11851,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 43854-2020</t>
+          <t>A 43843-2020</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11848,7 +11876,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11885,14 +11913,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 45842-2020</t>
+          <t>A 43854-2020</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44090</v>
+        <v>44082</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11910,7 +11938,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11947,14 +11975,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 46041-2020</t>
+          <t>A 45842-2020</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11966,8 +11994,13 @@
           <t>NORDMALING</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12004,14 +12037,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 46769-2020</t>
+          <t>A 46041-2020</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44095</v>
+        <v>44091</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12023,13 +12056,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>12.6</v>
+        <v>0.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12066,14 +12094,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 47496-2020</t>
+          <t>A 46769-2020</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12091,7 +12119,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.8</v>
+        <v>12.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12128,14 +12156,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 47214-2020</t>
+          <t>A 47496-2020</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12147,8 +12175,13 @@
           <t>NORDMALING</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12185,14 +12218,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 47476-2020</t>
+          <t>A 47214-2020</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12204,13 +12237,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12247,14 +12275,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 48058-2020</t>
+          <t>A 47476-2020</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12268,11 +12296,11 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12309,14 +12337,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 48113-2020</t>
+          <t>A 48058-2020</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12328,8 +12356,13 @@
           <t>NORDMALING</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>24.5</v>
+        <v>3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12366,14 +12399,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 49326-2020</t>
+          <t>A 48113-2020</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12386,7 +12419,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.9</v>
+        <v>24.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12423,14 +12456,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 48990-2020</t>
+          <t>A 49326-2020</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12443,7 +12476,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12480,14 +12513,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 51890-2020</t>
+          <t>A 48990-2020</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44109</v>
+        <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12500,7 +12533,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12537,14 +12570,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 52525-2020</t>
+          <t>A 51890-2020</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44118</v>
+        <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12557,7 +12590,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>16.3</v>
+        <v>0.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12594,14 +12627,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 52930-2020</t>
+          <t>A 52525-2020</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12614,7 +12647,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.3</v>
+        <v>16.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12651,14 +12684,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 54459-2020</t>
+          <t>A 52930-2020</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44125</v>
+        <v>44119</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12671,7 +12704,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12708,14 +12741,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 55668-2020</t>
+          <t>A 54459-2020</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44131</v>
+        <v>44125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12727,13 +12760,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12770,14 +12798,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 56887-2020</t>
+          <t>A 55668-2020</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44134</v>
+        <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12789,8 +12817,13 @@
           <t>NORDMALING</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12827,14 +12860,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 56883-2020</t>
+          <t>A 56887-2020</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12847,7 +12880,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12884,14 +12917,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 57033-2020</t>
+          <t>A 56883-2020</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44137</v>
+        <v>44134</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12904,7 +12937,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12941,14 +12974,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 57186-2020</t>
+          <t>A 57033-2020</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12960,13 +12993,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13003,14 +13031,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 57159-2020</t>
+          <t>A 57186-2020</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13022,8 +13050,13 @@
           <t>NORDMALING</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13060,14 +13093,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 57410-2020</t>
+          <t>A 57159-2020</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13080,7 +13113,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13117,14 +13150,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 58441-2020</t>
+          <t>A 57410-2020</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44144</v>
+        <v>44139</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13137,7 +13170,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13174,14 +13207,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 59358-2020</t>
+          <t>A 58441-2020</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44147</v>
+        <v>44144</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13194,7 +13227,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13231,14 +13264,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 59595-2020</t>
+          <t>A 59358-2020</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13250,13 +13283,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13293,14 +13321,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 59904-2020</t>
+          <t>A 59595-2020</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13310,6 +13338,11 @@
       <c r="E203" t="inlineStr">
         <is>
           <t>NORDMALING</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G203" t="n">
@@ -13350,14 +13383,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 60402-2020</t>
+          <t>A 59904-2020</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13369,13 +13402,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13412,14 +13440,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 60403-2020</t>
+          <t>A 60402-2020</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13437,7 +13465,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13474,14 +13502,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 61444-2020</t>
+          <t>A 60403-2020</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44157</v>
+        <v>44152</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13499,7 +13527,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13536,14 +13564,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 61445-2020</t>
+          <t>A 61444-2020</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13555,8 +13583,13 @@
           <t>NORDMALING</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13593,14 +13626,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 66839-2020</t>
+          <t>A 61445-2020</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44179</v>
+        <v>44157</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13613,7 +13646,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13650,14 +13683,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 66833-2020</t>
+          <t>A 66839-2020</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13669,13 +13702,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13712,14 +13740,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 66841-2020</t>
+          <t>A 66833-2020</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13731,8 +13759,13 @@
           <t>NORDMALING</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13769,14 +13802,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 67993-2020</t>
+          <t>A 66841-2020</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44182</v>
+        <v>44179</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13789,7 +13822,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13826,14 +13859,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 68042-2020</t>
+          <t>A 67993-2020</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13845,13 +13878,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13888,14 +13916,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 1141-2021</t>
+          <t>A 68042-2020</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44207</v>
+        <v>44182</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13907,8 +13935,13 @@
           <t>NORDMALING</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13945,14 +13978,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 1132-2021</t>
+          <t>A 1141-2021</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13965,7 +13998,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14002,14 +14035,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 1406-2021</t>
+          <t>A 1132-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14022,7 +14055,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14059,14 +14092,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 4131-2021</t>
+          <t>A 1406-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44218</v>
+        <v>44208</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14079,7 +14112,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14116,14 +14149,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 5456-2021</t>
+          <t>A 4131-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44229</v>
+        <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14136,7 +14169,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14173,14 +14206,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 7225-2021</t>
+          <t>A 5456-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44237</v>
+        <v>44229</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14193,7 +14226,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>7.1</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14230,14 +14263,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 8463-2021</t>
+          <t>A 7225-2021</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44244</v>
+        <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14250,7 +14283,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.4</v>
+        <v>7.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14287,14 +14320,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 8465-2021</t>
+          <t>A 8463-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14307,7 +14340,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14344,14 +14377,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 10238-2021</t>
+          <t>A 8465-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44256</v>
+        <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14364,7 +14397,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14401,14 +14434,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 10591-2021</t>
+          <t>A 10238-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44258</v>
+        <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14421,7 +14454,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14458,14 +14491,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 10595-2021</t>
+          <t>A 10591-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14478,7 +14511,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14515,14 +14548,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 11759-2021</t>
+          <t>A 10595-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44265</v>
+        <v>44258</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14535,7 +14568,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14572,14 +14605,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 12077-2021</t>
+          <t>A 11759-2021</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14592,7 +14625,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14629,14 +14662,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 15990-2021</t>
+          <t>A 12077-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44287</v>
+        <v>44266</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14649,7 +14682,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14686,14 +14719,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 15992-2021</t>
+          <t>A 15990-2021</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14743,14 +14776,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 17830-2021</t>
+          <t>A 15992-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44300</v>
+        <v>44287</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14763,7 +14796,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14800,14 +14833,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 17752-2021</t>
+          <t>A 17830-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14820,7 +14853,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14857,14 +14890,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 20035-2021</t>
+          <t>A 17752-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44313</v>
+        <v>44300</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14877,7 +14910,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14914,14 +14947,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 20976-2021</t>
+          <t>A 20035-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44318</v>
+        <v>44313</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14934,7 +14967,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14971,14 +15004,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 24027-2021</t>
+          <t>A 20976-2021</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44335</v>
+        <v>44318</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14991,7 +15024,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>10</v>
+        <v>2.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15028,14 +15061,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 25401-2021</t>
+          <t>A 24027-2021</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44342</v>
+        <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15048,7 +15081,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15085,14 +15118,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 25403-2021</t>
+          <t>A 25401-2021</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15105,7 +15138,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15142,14 +15175,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 25994-2021</t>
+          <t>A 25403-2021</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44344</v>
+        <v>44342</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15161,13 +15194,8 @@
           <t>NORDMALING</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15204,14 +15232,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 26364-2021</t>
+          <t>A 25994-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44347</v>
+        <v>44344</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15229,7 +15257,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>5.2</v>
+        <v>11</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15266,14 +15294,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 27860-2021</t>
+          <t>A 26364-2021</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44354</v>
+        <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15291,7 +15319,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15328,14 +15356,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 27850-2021</t>
+          <t>A 27860-2021</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15353,7 +15381,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15397,7 +15425,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15454,7 +15482,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15511,7 +15539,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15568,7 +15596,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15625,7 +15653,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15682,7 +15710,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15739,7 +15767,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15796,7 +15824,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15853,7 +15881,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15910,7 +15938,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15967,7 +15995,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16024,7 +16052,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16081,7 +16109,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16138,7 +16166,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16195,7 +16223,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16252,7 +16280,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16309,7 +16337,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16366,7 +16394,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16423,7 +16451,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16480,7 +16508,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16537,7 +16565,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16594,7 +16622,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16651,7 +16679,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16708,7 +16736,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16765,7 +16793,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16822,7 +16850,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16879,7 +16907,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16936,7 +16964,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16993,7 +17021,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17050,7 +17078,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17107,7 +17135,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17164,7 +17192,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17221,7 +17249,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17283,7 +17311,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17340,7 +17368,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17397,7 +17425,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17454,7 +17482,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17511,7 +17539,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17568,7 +17596,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17625,7 +17653,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17682,7 +17710,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17739,7 +17767,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17796,7 +17824,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17853,7 +17881,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17915,7 +17943,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17977,7 +18005,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18034,7 +18062,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18111,7 +18139,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18168,7 +18196,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18225,7 +18253,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18287,7 +18315,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18349,7 +18377,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18406,7 +18434,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18463,7 +18491,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18520,7 +18548,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18577,7 +18605,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18634,7 +18662,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18691,7 +18719,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18748,7 +18776,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18805,7 +18833,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18862,7 +18890,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18919,7 +18947,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18976,7 +19004,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19033,7 +19061,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19090,7 +19118,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19147,7 +19175,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19204,7 +19232,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19266,7 +19294,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19323,7 +19351,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19385,7 +19413,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19442,7 +19470,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19499,7 +19527,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19556,7 +19584,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19613,7 +19641,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19670,7 +19698,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19727,7 +19755,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19784,7 +19812,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19841,7 +19869,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19898,7 +19926,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19955,7 +19983,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20012,7 +20040,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20069,7 +20097,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20126,7 +20154,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20183,7 +20211,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20240,7 +20268,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20297,7 +20325,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20354,7 +20382,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20411,7 +20439,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20468,7 +20496,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20525,7 +20553,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20582,7 +20610,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20644,7 +20672,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20701,7 +20729,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20758,7 +20786,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20820,7 +20848,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20882,7 +20910,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20939,7 +20967,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20996,7 +21024,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21053,7 +21081,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21110,7 +21138,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21167,7 +21195,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21224,7 +21252,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21281,7 +21309,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21338,7 +21366,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21395,7 +21423,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21452,7 +21480,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21509,7 +21537,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21571,7 +21599,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21628,7 +21656,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21685,7 +21713,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21742,7 +21770,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21799,7 +21827,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21856,7 +21884,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21913,7 +21941,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21970,7 +21998,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22032,7 +22060,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22089,7 +22117,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22146,7 +22174,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22203,7 +22231,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22260,7 +22288,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22317,7 +22345,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22379,7 +22407,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22441,7 +22469,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22498,7 +22526,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22560,7 +22588,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22617,7 +22645,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22679,7 +22707,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22741,7 +22769,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22798,7 +22826,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22855,7 +22883,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22917,7 +22945,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22979,7 +23007,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23036,7 +23064,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23093,7 +23121,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23150,7 +23178,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23207,7 +23235,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23264,7 +23292,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23321,7 +23349,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23383,7 +23411,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23440,7 +23468,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23497,7 +23525,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23554,7 +23582,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23611,7 +23639,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23668,7 +23696,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23725,7 +23753,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23782,7 +23810,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23839,7 +23867,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23896,7 +23924,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23953,7 +23981,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24010,7 +24038,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24067,7 +24095,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24124,7 +24152,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24181,7 +24209,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24238,7 +24266,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24295,7 +24323,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24352,7 +24380,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24409,7 +24437,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24466,7 +24494,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24523,7 +24551,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24580,7 +24608,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24637,7 +24665,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24694,7 +24722,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24751,7 +24779,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24808,7 +24836,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24865,7 +24893,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24922,7 +24950,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24979,7 +25007,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25036,7 +25064,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25093,7 +25121,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25150,7 +25178,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25207,7 +25235,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25269,7 +25297,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25326,7 +25354,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25383,7 +25411,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25440,7 +25468,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25497,7 +25525,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25554,7 +25582,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25611,7 +25639,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25668,7 +25696,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25725,7 +25753,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25782,7 +25810,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25839,7 +25867,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>44431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44721</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44865</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44912</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44991</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>45168</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43322</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43366</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43367</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43388</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43403</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43404</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43453</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43455</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>43483</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>43503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43521</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43525</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43529</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43563</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43567</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43578</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43579</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43587</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43592</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43621</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43650</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43677</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43678</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43689</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43691</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43696</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43697</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43698</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43724</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43747</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43748</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43760</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>43763</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>43781</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43791</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43794</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43796</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43798</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43802</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43809</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43830</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43864</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43882</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43893</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43895</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43901</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43902</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43907</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43910</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43923</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43929</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43984</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43991</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43992</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43994</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44006</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44008</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44025</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44035</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44054</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44063</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44064</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44067</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44082</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44090</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44091</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44095</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>44098</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44099</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44101</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44119</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44134</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44137</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44138</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44139</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>44144</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44151</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>44152</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44157</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44179</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44182</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44207</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44208</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44229</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44258</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44265</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44266</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44287</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44300</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44313</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>44318</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44342</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44344</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25121,7 +25121,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25178,7 +25178,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>44431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44721</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44865</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44912</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44991</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>45168</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43322</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43366</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43367</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43388</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43403</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43404</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43453</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43455</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>43483</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>43503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43521</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43525</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43529</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43563</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43567</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43578</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43579</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43587</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43592</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43621</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43650</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43677</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43678</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43689</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43691</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43696</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43697</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43698</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43724</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43747</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43748</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43760</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>43763</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>43781</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43791</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43794</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43796</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43798</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43802</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43809</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43830</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43864</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43882</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43893</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43895</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43901</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43902</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43907</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43910</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43923</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43929</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43984</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43991</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43992</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43994</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44006</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44008</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44025</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44035</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44054</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44063</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44064</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44067</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44082</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44090</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44091</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44095</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>44098</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44099</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44101</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44119</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44134</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44137</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44138</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44139</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>44144</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44151</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>44152</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44157</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44179</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44182</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44207</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44208</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44229</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44258</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44265</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44266</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44287</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44300</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44313</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>44318</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44342</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44344</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25121,7 +25121,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25178,7 +25178,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -642,31 +642,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 20995-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 20995-2019.xlsx", "A 20995-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 20995-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 20995-2019.png", "A 20995-2019")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/knärot/A 20995-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/knärot/A 20995-2019.png", "A 20995-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 20995-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 20995-2019.docx", "A 20995-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 20995-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 20995-2019.docx", "A 20995-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 20995-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 20995-2019.docx", "A 20995-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 20995-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 20995-2019.docx", "A 20995-2019")</f>
         <v/>
       </c>
     </row>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,27 +744,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 7355-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 7355-2020.xlsx", "A 7355-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 7355-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 7355-2020.png", "A 7355-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 7355-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 7355-2020.docx", "A 7355-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 7355-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 7355-2020.docx", "A 7355-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 7355-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 7355-2020.docx", "A 7355-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 7355-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 7355-2020.docx", "A 7355-2020")</f>
         <v/>
       </c>
     </row>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,27 +841,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 40099-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 40099-2019.xlsx", "A 40099-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 40099-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 40099-2019.png", "A 40099-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 40099-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 40099-2019.docx", "A 40099-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 40099-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 40099-2019.docx", "A 40099-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 40099-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 40099-2019.docx", "A 40099-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 40099-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 40099-2019.docx", "A 40099-2019")</f>
         <v/>
       </c>
     </row>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,27 +937,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 54057-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 54057-2022.xlsx", "A 54057-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 54057-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 54057-2022.png", "A 54057-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 54057-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 54057-2022.docx", "A 54057-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 54057-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 54057-2022.docx", "A 54057-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 54057-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 54057-2022.docx", "A 54057-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 54057-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 54057-2022.docx", "A 54057-2022")</f>
         <v/>
       </c>
     </row>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,27 +1029,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 24051-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 24051-2021.xlsx", "A 24051-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 24051-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 24051-2021.png", "A 24051-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 24051-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 24051-2021.docx", "A 24051-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 24051-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 24051-2021.docx", "A 24051-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 24051-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 24051-2021.docx", "A 24051-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 24051-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 24051-2021.docx", "A 24051-2021")</f>
         <v/>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,27 +1119,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 10196-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 10196-2020.xlsx", "A 10196-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 10196-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 10196-2020.png", "A 10196-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 10196-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 10196-2020.docx", "A 10196-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 10196-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 10196-2020.docx", "A 10196-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 10196-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 10196-2020.docx", "A 10196-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 10196-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 10196-2020.docx", "A 10196-2020")</f>
         <v/>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,27 +1207,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 9856-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 9856-2020.xlsx", "A 9856-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 9856-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 9856-2020.png", "A 9856-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 9856-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 9856-2020.docx", "A 9856-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 9856-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 9856-2020.docx", "A 9856-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 9856-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 9856-2020.docx", "A 9856-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 9856-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 9856-2020.docx", "A 9856-2020")</f>
         <v/>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,27 +1295,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 10764-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 10764-2023.xlsx", "A 10764-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 10764-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 10764-2023.png", "A 10764-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 10764-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 10764-2023.docx", "A 10764-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 10764-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 10764-2023.docx", "A 10764-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 10764-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 10764-2023.docx", "A 10764-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 10764-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 10764-2023.docx", "A 10764-2023")</f>
         <v/>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1382,27 +1382,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 12915-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 12915-2019.xlsx", "A 12915-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 12915-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 12915-2019.png", "A 12915-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 12915-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 12915-2019.docx", "A 12915-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 12915-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 12915-2019.docx", "A 12915-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 12915-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 12915-2019.docx", "A 12915-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 12915-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 12915-2019.docx", "A 12915-2019")</f>
         <v/>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,27 +1469,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 18717-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 18717-2020.xlsx", "A 18717-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 18717-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 18717-2020.png", "A 18717-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 18717-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 18717-2020.docx", "A 18717-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 18717-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 18717-2020.docx", "A 18717-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 18717-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 18717-2020.docx", "A 18717-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 18717-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 18717-2020.docx", "A 18717-2020")</f>
         <v/>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,27 +1556,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 40137-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 40137-2020.xlsx", "A 40137-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 40137-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 40137-2020.png", "A 40137-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 40137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 40137-2020.docx", "A 40137-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 40137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 40137-2020.docx", "A 40137-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 40137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 40137-2020.docx", "A 40137-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 40137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 40137-2020.docx", "A 40137-2020")</f>
         <v/>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,27 +1643,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 60450-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 60450-2022.xlsx", "A 60450-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 60450-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 60450-2022.png", "A 60450-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 60450-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 60450-2022.docx", "A 60450-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 60450-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 60450-2022.docx", "A 60450-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 60450-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 60450-2022.docx", "A 60450-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 60450-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 60450-2022.docx", "A 60450-2022")</f>
         <v/>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1729,27 +1729,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 17998-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 17998-2019.xlsx", "A 17998-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 17998-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 17998-2019.png", "A 17998-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 17998-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 17998-2019.docx", "A 17998-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 17998-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 17998-2019.docx", "A 17998-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 17998-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 17998-2019.docx", "A 17998-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 17998-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 17998-2019.docx", "A 17998-2019")</f>
         <v/>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1815,27 +1815,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 29824-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 29824-2019.xlsx", "A 29824-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 29824-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 29824-2019.png", "A 29824-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 29824-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 29824-2019.docx", "A 29824-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 29824-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 29824-2019.docx", "A 29824-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 29824-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 29824-2019.docx", "A 29824-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 29824-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 29824-2019.docx", "A 29824-2019")</f>
         <v/>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1901,27 +1901,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 3124-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 3124-2020.xlsx", "A 3124-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 3124-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 3124-2020.png", "A 3124-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 3124-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 3124-2020.docx", "A 3124-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 3124-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 3124-2020.docx", "A 3124-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 3124-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 3124-2020.docx", "A 3124-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 3124-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 3124-2020.docx", "A 3124-2020")</f>
         <v/>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1987,27 +1987,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 40914-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 40914-2020.xlsx", "A 40914-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 40914-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 40914-2020.png", "A 40914-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 40914-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 40914-2020.docx", "A 40914-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 40914-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 40914-2020.docx", "A 40914-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 40914-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 40914-2020.docx", "A 40914-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 40914-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 40914-2020.docx", "A 40914-2020")</f>
         <v/>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,27 +2073,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 1148-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 1148-2021.xlsx", "A 1148-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 1148-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 1148-2021.png", "A 1148-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 1148-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 1148-2021.docx", "A 1148-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 1148-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 1148-2021.docx", "A 1148-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 1148-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 1148-2021.docx", "A 1148-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 1148-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 1148-2021.docx", "A 1148-2021")</f>
         <v/>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,27 +2164,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 40432-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 40432-2023.xlsx", "A 40432-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 40432-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 40432-2023.png", "A 40432-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 40432-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 40432-2023.docx", "A 40432-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 40432-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 40432-2023.docx", "A 40432-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 40432-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 40432-2023.docx", "A 40432-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 40432-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 40432-2023.docx", "A 40432-2023")</f>
         <v/>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,27 +2249,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 57907-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 57907-2018.xlsx", "A 57907-2018")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 57907-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 57907-2018.png", "A 57907-2018")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 57907-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 57907-2018.docx", "A 57907-2018")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 57907-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 57907-2018.docx", "A 57907-2018")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 57907-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 57907-2018.docx", "A 57907-2018")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 57907-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 57907-2018.docx", "A 57907-2018")</f>
         <v/>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2334,27 +2334,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 7144-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 7144-2019.xlsx", "A 7144-2019")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 7144-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 7144-2019.png", "A 7144-2019")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 7144-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 7144-2019.docx", "A 7144-2019")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 7144-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 7144-2019.docx", "A 7144-2019")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 7144-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 7144-2019.docx", "A 7144-2019")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 7144-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 7144-2019.docx", "A 7144-2019")</f>
         <v/>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,27 +2424,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 63411-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 63411-2019.xlsx", "A 63411-2019")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 63411-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 63411-2019.png", "A 63411-2019")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 63411-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 63411-2019.docx", "A 63411-2019")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 63411-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 63411-2019.docx", "A 63411-2019")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 63411-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 63411-2019.docx", "A 63411-2019")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 63411-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 63411-2019.docx", "A 63411-2019")</f>
         <v/>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2514,27 +2514,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 64185-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 64185-2020.xlsx", "A 64185-2020")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 64185-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 64185-2020.png", "A 64185-2020")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 64185-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 64185-2020.docx", "A 64185-2020")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 64185-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 64185-2020.docx", "A 64185-2020")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 64185-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 64185-2020.docx", "A 64185-2020")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 64185-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 64185-2020.docx", "A 64185-2020")</f>
         <v/>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2604,27 +2604,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 65617-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 65617-2020.xlsx", "A 65617-2020")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 65617-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 65617-2020.png", "A 65617-2020")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 65617-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 65617-2020.docx", "A 65617-2020")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 65617-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 65617-2020.docx", "A 65617-2020")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 65617-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 65617-2020.docx", "A 65617-2020")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 65617-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 65617-2020.docx", "A 65617-2020")</f>
         <v/>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2694,27 +2694,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 68291-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 68291-2020.xlsx", "A 68291-2020")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 68291-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 68291-2020.png", "A 68291-2020")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 68291-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 68291-2020.docx", "A 68291-2020")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 68291-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 68291-2020.docx", "A 68291-2020")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 68291-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 68291-2020.docx", "A 68291-2020")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 68291-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 68291-2020.docx", "A 68291-2020")</f>
         <v/>
       </c>
     </row>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2779,27 +2779,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 3816-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 3816-2021.xlsx", "A 3816-2021")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 3816-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 3816-2021.png", "A 3816-2021")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 3816-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 3816-2021.docx", "A 3816-2021")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 3816-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 3816-2021.docx", "A 3816-2021")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 3816-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 3816-2021.docx", "A 3816-2021")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 3816-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 3816-2021.docx", "A 3816-2021")</f>
         <v/>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
         <v>44354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,27 +2869,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 27850-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 27850-2021.xlsx", "A 27850-2021")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 27850-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 27850-2021.png", "A 27850-2021")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 27850-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 27850-2021.docx", "A 27850-2021")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 27850-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 27850-2021.docx", "A 27850-2021")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 27850-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 27850-2021.docx", "A 27850-2021")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 27850-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 27850-2021.docx", "A 27850-2021")</f>
         <v/>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
         <v>44431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2954,27 +2954,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 43050-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 43050-2021.xlsx", "A 43050-2021")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 43050-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 43050-2021.png", "A 43050-2021")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 43050-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 43050-2021.docx", "A 43050-2021")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 43050-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 43050-2021.docx", "A 43050-2021")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 43050-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 43050-2021.docx", "A 43050-2021")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 43050-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 43050-2021.docx", "A 43050-2021")</f>
         <v/>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3044,27 +3044,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 60309-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 60309-2021.xlsx", "A 60309-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 60309-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 60309-2021.png", "A 60309-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 60309-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 60309-2021.docx", "A 60309-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 60309-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 60309-2021.docx", "A 60309-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 60309-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 60309-2021.docx", "A 60309-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 60309-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 60309-2021.docx", "A 60309-2021")</f>
         <v/>
       </c>
     </row>
@@ -3078,7 +3078,7 @@
         <v>44495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3134,27 +3134,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 60310-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 60310-2021.xlsx", "A 60310-2021")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 60310-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 60310-2021.png", "A 60310-2021")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 60310-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 60310-2021.docx", "A 60310-2021")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 60310-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 60310-2021.docx", "A 60310-2021")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 60310-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 60310-2021.docx", "A 60310-2021")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 60310-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 60310-2021.docx", "A 60310-2021")</f>
         <v/>
       </c>
     </row>
@@ -3168,7 +3168,7 @@
         <v>44721</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3219,27 +3219,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 23496-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 23496-2022.xlsx", "A 23496-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 23496-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 23496-2022.png", "A 23496-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 23496-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 23496-2022.docx", "A 23496-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 23496-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 23496-2022.docx", "A 23496-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 23496-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 23496-2022.docx", "A 23496-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 23496-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 23496-2022.docx", "A 23496-2022")</f>
         <v/>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
         <v>44851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3309,27 +3309,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 46990-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 46990-2022.xlsx", "A 46990-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 46990-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 46990-2022.png", "A 46990-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 46990-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 46990-2022.docx", "A 46990-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 46990-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 46990-2022.docx", "A 46990-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 46990-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 46990-2022.docx", "A 46990-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 46990-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 46990-2022.docx", "A 46990-2022")</f>
         <v/>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3399,27 +3399,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 48947-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 48947-2022.xlsx", "A 48947-2022")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 48947-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 48947-2022.png", "A 48947-2022")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 48947-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 48947-2022.docx", "A 48947-2022")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 48947-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 48947-2022.docx", "A 48947-2022")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 48947-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 48947-2022.docx", "A 48947-2022")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 48947-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 48947-2022.docx", "A 48947-2022")</f>
         <v/>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
         <v>44865</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3489,27 +3489,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 50257-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 50257-2022.xlsx", "A 50257-2022")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 50257-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 50257-2022.png", "A 50257-2022")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 50257-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 50257-2022.docx", "A 50257-2022")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 50257-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 50257-2022.docx", "A 50257-2022")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 50257-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 50257-2022.docx", "A 50257-2022")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 50257-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 50257-2022.docx", "A 50257-2022")</f>
         <v/>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
         <v>44912</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3579,27 +3579,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 60719-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 60719-2022.xlsx", "A 60719-2022")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 60719-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 60719-2022.png", "A 60719-2022")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 60719-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 60719-2022.docx", "A 60719-2022")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 60719-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 60719-2022.docx", "A 60719-2022")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 60719-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 60719-2022.docx", "A 60719-2022")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 60719-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 60719-2022.docx", "A 60719-2022")</f>
         <v/>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
         <v>44991</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3669,27 +3669,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 11056-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 11056-2023.xlsx", "A 11056-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 11056-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 11056-2023.png", "A 11056-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 11056-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 11056-2023.docx", "A 11056-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 11056-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 11056-2023.docx", "A 11056-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 11056-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 11056-2023.docx", "A 11056-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 11056-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 11056-2023.docx", "A 11056-2023")</f>
         <v/>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
         <v>45168</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3759,27 +3759,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 40113-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/artfynd/A 40113-2023.xlsx", "A 40113-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 40113-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/kartor/A 40113-2023.png", "A 40113-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 40113-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 40113-2023.docx", "A 40113-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 40113-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 40113-2023.docx", "A 40113-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 40113-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 40113-2023.docx", "A 40113-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 40113-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 40113-2023.docx", "A 40113-2023")</f>
         <v/>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
         <v>43322</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43366</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43367</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43388</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43403</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43404</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43453</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43455</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>43483</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>43503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43521</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43525</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43529</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43563</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43567</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43578</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43579</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43587</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43592</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43621</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43650</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43677</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43678</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43689</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43691</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43696</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43697</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43698</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43724</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43747</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43748</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43760</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>43763</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>43781</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43791</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43794</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43796</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43798</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43802</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43809</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43830</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43864</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43882</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43893</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43895</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43901</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43902</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43907</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43910</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43923</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43929</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43984</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43991</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43992</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43994</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44006</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44008</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44025</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44035</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44054</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44063</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44064</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44067</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44082</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44090</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44091</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44095</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>44098</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44099</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44101</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44119</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44134</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44137</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44138</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44139</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>44144</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44151</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>44152</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44157</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44179</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44182</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44207</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44208</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44229</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44258</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44265</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44266</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44287</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44300</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44313</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>44318</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44342</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44344</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18109,23 +18109,23 @@
       </c>
       <c r="R285" s="2" t="inlineStr"/>
       <c r="U285">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/knärot/A 24944-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/knärot/A 24944-2022.png", "A 24944-2022")</f>
         <v/>
       </c>
       <c r="V285">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 24944-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomål/A 24944-2022.docx", "A 24944-2022")</f>
         <v/>
       </c>
       <c r="W285">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 24944-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/klagomålsmail/A 24944-2022.docx", "A 24944-2022")</f>
         <v/>
       </c>
       <c r="X285">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 24944-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsyn/A 24944-2022.docx", "A 24944-2022")</f>
         <v/>
       </c>
       <c r="Y285">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 24944-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDMALING/tillsynsmail/A 24944-2022.docx", "A 24944-2022")</f>
         <v/>
       </c>
     </row>
@@ -18139,7 +18139,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25121,7 +25121,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25178,7 +25178,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>44431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44721</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44865</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44912</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44991</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>45168</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43322</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43366</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43367</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43388</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43403</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43404</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43453</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43455</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>43483</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>43503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43521</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43525</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43529</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43563</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43567</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43578</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43579</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43587</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43592</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43621</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43650</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43677</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43678</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43689</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43691</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43696</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43697</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43698</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43724</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43747</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43748</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43760</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>43763</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>43781</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43791</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43794</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43796</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43798</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43802</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43809</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43830</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43864</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43882</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43893</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43895</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43901</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43902</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43907</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43910</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43923</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43929</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43984</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43991</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43992</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43994</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44006</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44008</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44025</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44035</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44054</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44063</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44064</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44067</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44082</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44090</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44091</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44095</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>44098</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44099</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44101</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44119</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44134</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44137</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44138</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44139</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>44144</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44151</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>44152</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44157</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44179</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44182</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44207</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44208</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44229</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44258</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44265</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44266</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44287</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44300</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44313</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>44318</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44342</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44344</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25121,7 +25121,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25178,7 +25178,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>44431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44721</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44865</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44912</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44991</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>45168</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43322</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43366</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43367</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43388</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43403</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43404</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43453</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43455</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>43483</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>43503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43521</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43525</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43529</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43563</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43567</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43578</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43579</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43587</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43592</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43621</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43650</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43677</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43678</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43689</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43691</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43696</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43697</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43698</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43724</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43747</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43748</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43760</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>43763</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>43781</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43791</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43794</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43796</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43798</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43802</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43809</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43830</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43864</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43882</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43893</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43895</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43901</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43902</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43907</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43910</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43923</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43929</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43984</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43991</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43992</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43994</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44006</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44008</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44025</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44035</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44054</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44063</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44064</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44067</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44082</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44090</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44091</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44095</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>44098</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44099</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44101</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44119</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44134</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44137</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44138</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44139</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>44144</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44151</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>44152</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44157</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44179</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44182</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44207</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44208</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44229</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44258</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44265</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44266</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44287</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44300</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44313</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>44318</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44342</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44344</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25121,7 +25121,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25178,7 +25178,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>44431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44721</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44865</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44912</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44991</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>45168</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43322</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43366</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43367</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43388</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43403</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43404</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43453</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43455</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>43483</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>43503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43521</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43525</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43529</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43563</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43567</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43578</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43579</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43587</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43592</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43621</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43650</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43677</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43678</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43689</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43691</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43696</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43697</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43698</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43724</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43747</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43748</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43760</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>43763</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>43781</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43791</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43794</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43796</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43798</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43802</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43809</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43830</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43864</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43882</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43893</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43895</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43901</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43902</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43907</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43910</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43923</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43929</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43984</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43991</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43992</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43994</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44006</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44008</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44025</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44035</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44054</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44063</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44064</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44067</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44082</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44090</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44091</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44095</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>44098</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44099</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44101</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44119</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44134</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44137</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44138</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44139</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>44144</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44151</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>44152</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44157</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44179</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44182</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44207</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44208</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44229</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44258</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44265</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44266</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44287</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44300</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44313</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>44318</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44342</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44344</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25121,7 +25121,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25178,7 +25178,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>44431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44721</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44865</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44912</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44991</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>45168</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43322</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43366</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43367</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43388</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43403</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43404</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43453</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43455</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>43483</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>43503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43521</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43525</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43529</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43563</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43567</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43578</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43579</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43587</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43592</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43621</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43650</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43677</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43678</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43689</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43691</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43696</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43697</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43698</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43724</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43747</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43748</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43760</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>43763</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>43781</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43791</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43794</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43796</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43798</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43802</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43809</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43830</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43864</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43882</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43893</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43895</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43901</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43902</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43907</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43910</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43923</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43929</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43984</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43991</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43992</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43994</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44006</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44008</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44025</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44035</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44054</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44063</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44064</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44067</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44082</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44090</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44091</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44095</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>44098</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44099</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44101</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44119</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44134</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44137</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44138</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44139</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>44144</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44151</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>44152</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44157</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44179</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44182</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44207</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44208</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44229</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44258</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44265</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44266</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44287</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44300</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44313</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>44318</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44342</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44344</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25121,7 +25121,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25178,7 +25178,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y420"/>
+  <dimension ref="A1:Y421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>44431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44721</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44865</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44912</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44991</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>45168</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43322</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43366</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43367</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43388</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43403</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43404</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43453</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43455</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>43483</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>43503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43521</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43525</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43529</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43563</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43567</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43578</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43579</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43587</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43592</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43621</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43650</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43677</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43678</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43689</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43691</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43696</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43697</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43698</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43724</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43747</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43748</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43760</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>43763</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>43781</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43791</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43794</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43796</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43798</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43802</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43809</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43830</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43864</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43882</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43893</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43895</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43901</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43902</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43907</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43910</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43923</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43929</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43984</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43991</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43992</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43994</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44006</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44008</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44025</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44035</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44054</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44063</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44064</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44067</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44082</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44090</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44091</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44095</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>44098</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44099</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44101</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44119</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44134</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44137</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44138</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44139</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>44144</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44151</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>44152</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44157</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44179</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44182</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44207</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44208</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44229</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44258</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44265</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44266</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44287</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44300</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44313</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>44318</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44342</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44344</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25121,7 +25121,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25178,7 +25178,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
       </c>
       <c r="R419" s="2" t="inlineStr"/>
     </row>
-    <row r="420">
+    <row r="420" ht="15" customHeight="1">
       <c r="A420" t="inlineStr">
         <is>
           <t>A 40008-2023</t>
@@ -25867,7 +25867,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25913,6 +25913,63 @@
         <v>0</v>
       </c>
       <c r="R420" s="2" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>A 46326-2023</t>
+        </is>
+      </c>
+      <c r="B421" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C421" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>NORDMALING</t>
+        </is>
+      </c>
+      <c r="G421" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0</v>
+      </c>
+      <c r="L421" t="n">
+        <v>0</v>
+      </c>
+      <c r="M421" t="n">
+        <v>0</v>
+      </c>
+      <c r="N421" t="n">
+        <v>0</v>
+      </c>
+      <c r="O421" t="n">
+        <v>0</v>
+      </c>
+      <c r="P421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q421" t="n">
+        <v>0</v>
+      </c>
+      <c r="R421" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>44431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44721</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44865</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44912</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44991</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>45168</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43322</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43366</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43367</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43388</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43403</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43404</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43453</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43455</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>43483</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>43503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43521</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43525</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43529</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43563</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43567</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43578</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43579</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43587</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43592</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43621</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43650</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43677</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43678</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43689</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43691</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43696</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43697</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43698</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43724</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43747</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43748</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43760</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>43763</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>43781</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43791</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43794</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43796</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43798</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43802</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43809</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43830</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43864</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43882</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43893</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43895</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43901</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43902</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43907</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43910</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43923</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43929</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43984</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43991</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43992</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43994</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44006</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44008</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44025</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44035</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44054</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44063</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44064</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44067</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44082</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44090</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44091</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44095</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>44098</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44099</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44101</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44119</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44134</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44137</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44138</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44139</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>44144</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44151</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>44152</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44157</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44179</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44182</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44207</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44208</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44229</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44258</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44265</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44266</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44287</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44300</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44313</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>44318</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44342</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44344</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25121,7 +25121,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25178,7 +25178,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>45197</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>44431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44721</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44865</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44912</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44991</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>45168</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43322</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43366</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43367</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43388</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43403</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43404</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43453</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43455</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>43483</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>43503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43521</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43525</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43529</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43563</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43567</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43578</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43579</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43587</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43592</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43621</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43650</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43677</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43678</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43689</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43691</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43696</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43697</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43698</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43724</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43747</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43748</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43760</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>43763</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>43781</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43791</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43794</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43796</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43798</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43802</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43809</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43830</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43864</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43882</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43893</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43895</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43901</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43902</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43907</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43910</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43923</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43929</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43984</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43991</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43992</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43994</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44006</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44008</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44025</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44035</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44054</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44063</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44064</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44067</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44082</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44090</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44091</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44095</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>44098</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44099</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44101</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44119</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44134</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44137</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44138</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44139</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>44144</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44151</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>44152</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44157</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44179</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44182</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44207</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44208</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44229</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44258</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44265</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44266</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44287</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44300</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44313</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>44318</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44342</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44344</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25121,7 +25121,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25178,7 +25178,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>45197</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>44431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44721</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44865</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44912</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44991</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>45168</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43322</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43366</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43367</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43388</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43403</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43404</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43453</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43455</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>43483</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>43503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43521</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43525</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43529</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43563</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43567</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43578</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43579</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43587</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43592</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43621</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43650</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43677</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43678</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43689</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43691</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43696</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43697</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43698</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43724</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43747</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43748</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43760</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>43763</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>43781</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43791</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43794</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43796</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43798</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43802</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43809</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43830</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43864</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43882</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43893</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43895</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43901</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43902</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43907</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43910</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43923</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43929</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43984</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43991</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43992</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43994</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44006</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44008</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44025</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44035</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44054</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44063</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44064</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44067</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44082</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44090</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44091</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44095</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>44098</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44099</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44101</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44119</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44134</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44137</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44138</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44139</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>44144</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44151</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>44152</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44157</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44179</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44182</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44207</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44208</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44229</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44258</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44265</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44266</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44287</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44300</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44313</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>44318</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44342</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44344</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25121,7 +25121,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25178,7 +25178,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>45197</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -572,7 +572,7 @@
         <v>43578</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43871</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44881</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43885</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>43882</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>43525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>43930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44064</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44904</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>43556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43843</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44068</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44207</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45169</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43787</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44173</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>44431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44721</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44851</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44865</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44912</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44991</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>45168</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43322</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43343</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43366</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43367</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43388</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43403</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43404</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43423</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43451</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43453</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43455</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43476</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>43483</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>43483</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>43503</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>43503</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>43503</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43521</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>43525</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>43525</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43525</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43529</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>43529</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>43529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>43529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>43529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>43529</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43530</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43530</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43531</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43531</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43545</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43553</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43563</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43567</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43578</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43578</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43579</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43579</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43587</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43592</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43621</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43650</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43677</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43678</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43683</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43689</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43691</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43696</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43697</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43698</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43700</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43713</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43713</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43713</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43724</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43746</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43747</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43748</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43760</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>43763</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>43781</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>43782</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>43787</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43791</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43794</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
         <v>43796</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43796</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43798</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43802</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43809</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43830</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43864</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43882</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43893</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43895</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43901</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43901</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43902</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43902</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43907</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43910</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43923</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43929</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43937</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43984</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43991</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43992</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43992</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43994</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44006</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44008</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44025</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44025</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44035</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44054</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44057</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44063</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44064</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44067</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44067</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44082</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44082</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44082</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44090</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>44091</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44095</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44095</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>44098</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44099</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44101</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44119</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44125</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44134</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44134</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44137</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44138</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44138</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44139</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>44144</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44147</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44151</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44152</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>44152</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44157</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44157</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44179</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44179</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44179</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44182</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44182</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44207</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44208</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44218</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44229</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44237</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44244</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44258</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44258</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44265</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44266</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44287</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44287</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44300</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44300</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44313</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>44318</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>44342</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44342</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44344</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44347</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44354</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44363</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44369</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44377</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44392</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44403</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44433</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44441</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44459</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44462</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44473</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44480</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>44482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44483</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44494</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44494</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>44515</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44515</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>44531</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44531</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44531</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44532</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44540</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44547</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44620</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44621</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44651</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>44651</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44655</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>44657</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>44687</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>44687</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44694</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44726</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44728</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44742</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44759</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44763</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44788</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>44789</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44802</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44803</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44806</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44806</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44806</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44812</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44812</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44812</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44816</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44816</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44819</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44820</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44830</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44851</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44854</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44854</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44858</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44858</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44859</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44860</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44860</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44861</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44861</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44866</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44866</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44866</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44872</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44886</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44886</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44901</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44904</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44905</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>44907</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>44908</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>44909</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44916</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44936</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44938</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44939</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44942</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44943</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44944</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44944</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44949</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44956</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44968</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44970</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44970</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44972</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44972</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44972</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44973</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44977</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44977</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44977</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44981</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44981</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44991</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45000</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45015</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45015</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>45021</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45028</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45030</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45030</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>45034</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>45034</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45034</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>45036</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>45037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>45048</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>45049</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>45050</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>45051</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45051</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>45054</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>45061</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>45062</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45062</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45065</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45075</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45077</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45085</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45092</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45098</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45102</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45110</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45112</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>45112</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>45126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45141</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45141</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45141</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45141</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>45141</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25121,7 +25121,7 @@
         <v>45141</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25178,7 +25178,7 @@
         <v>45141</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>45145</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45146</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45146</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45147</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45147</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45147</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>45147</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>45147</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>45154</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>45159</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45160</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45167</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>45197</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
